--- a/flows/TMF_fund_flow_data.xlsx
+++ b/flows/TMF_fund_flow_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3747"/>
+  <dimension ref="A1:B3755"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -37905,6 +37905,86 @@
         <v>15.6783</v>
       </c>
     </row>
+    <row r="3748">
+      <c r="A3748" t="inlineStr">
+        <is>
+          <t>2024-02-29</t>
+        </is>
+      </c>
+      <c r="B3748" t="n">
+        <v>181.0092</v>
+      </c>
+    </row>
+    <row r="3749">
+      <c r="A3749" t="inlineStr">
+        <is>
+          <t>2024-03-01</t>
+        </is>
+      </c>
+      <c r="B3749" t="n">
+        <v>-187.49025</v>
+      </c>
+    </row>
+    <row r="3750">
+      <c r="A3750" t="inlineStr">
+        <is>
+          <t>2024-03-04</t>
+        </is>
+      </c>
+      <c r="B3750" t="n">
+        <v>47.005</v>
+      </c>
+    </row>
+    <row r="3751">
+      <c r="A3751" t="inlineStr">
+        <is>
+          <t>2024-03-05</t>
+        </is>
+      </c>
+      <c r="B3751" t="n">
+        <v>10.9224</v>
+      </c>
+    </row>
+    <row r="3752">
+      <c r="A3752" t="inlineStr">
+        <is>
+          <t>2024-03-06</t>
+        </is>
+      </c>
+      <c r="B3752" t="n">
+        <v>-31.3093</v>
+      </c>
+    </row>
+    <row r="3753">
+      <c r="A3753" t="inlineStr">
+        <is>
+          <t>2024-03-07</t>
+        </is>
+      </c>
+      <c r="B3753" t="n">
+        <v>112.9206</v>
+      </c>
+    </row>
+    <row r="3754">
+      <c r="A3754" t="inlineStr">
+        <is>
+          <t>2024-03-08</t>
+        </is>
+      </c>
+      <c r="B3754" t="n">
+        <v>-202.0305</v>
+      </c>
+    </row>
+    <row r="3755">
+      <c r="A3755" t="inlineStr">
+        <is>
+          <t>2024-03-11</t>
+        </is>
+      </c>
+      <c r="B3755" t="n">
+        <v>5.7355</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
